--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_24.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_24.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_0</t>
+          <t>model_1_24_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.988415603792736</v>
+        <v>0.9222478101659226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7305239554072065</v>
+        <v>0.7268067193003922</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7089433944408152</v>
+        <v>0.6126875878186229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9811271103570283</v>
+        <v>0.9493105389642544</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0486172327184908</v>
+        <v>0.3263093077881159</v>
       </c>
       <c r="G2" t="n">
-        <v>1.801987551015101</v>
+        <v>1.826844725977667</v>
       </c>
       <c r="H2" t="n">
-        <v>1.041092601653554</v>
+        <v>1.385394040708791</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1268171315992416</v>
+        <v>0.6045377115550405</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4400592469867592</v>
+        <v>1.856049406005779</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2204931579856636</v>
+        <v>0.5712348972078963</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006781109974984</v>
+        <v>0.7334210634260203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2298800082048733</v>
+        <v>0.5955535494012892</v>
       </c>
       <c r="N2" t="n">
-        <v>136.0475544564806</v>
+        <v>36.23981910108527</v>
       </c>
       <c r="O2" t="n">
-        <v>215.2744830729136</v>
+        <v>56.96070812384468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_1</t>
+          <t>model_1_24_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9884394231528841</v>
+        <v>0.922225475434674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.730413224242209</v>
+        <v>0.7266742825114336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7089074670827782</v>
+        <v>0.6128747453900836</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9808567968474191</v>
+        <v>0.9504654556841191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04851726795944652</v>
+        <v>0.3264030418772639</v>
       </c>
       <c r="G3" t="n">
-        <v>1.80272801082531</v>
+        <v>1.827730331395248</v>
       </c>
       <c r="H3" t="n">
-        <v>1.041221111730065</v>
+        <v>1.384724588927695</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1286335139640863</v>
+        <v>0.5907638284519772</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4359775146019185</v>
+        <v>1.868234641206062</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2202663568488082</v>
+        <v>0.5713169364523197</v>
       </c>
       <c r="L3" t="n">
-        <v>1.006767166934897</v>
+        <v>0.7333444872045967</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2296435516740789</v>
+        <v>0.5956390812261924</v>
       </c>
       <c r="N3" t="n">
-        <v>136.0516710080102</v>
+        <v>36.2392446729174</v>
       </c>
       <c r="O3" t="n">
-        <v>215.2785996244432</v>
+        <v>56.96013369567681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_2</t>
+          <t>model_1_24_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9884600225904786</v>
+        <v>0.9221866325640858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7303040142670041</v>
+        <v>0.7265135334206563</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7088709562717046</v>
+        <v>0.613044098688022</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9805833589257195</v>
+        <v>0.9516247473432358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04843081652654677</v>
+        <v>0.3265660570957575</v>
       </c>
       <c r="G4" t="n">
-        <v>1.803458298432371</v>
+        <v>1.828805261305458</v>
       </c>
       <c r="H4" t="n">
-        <v>1.041351708784257</v>
+        <v>1.384118822000638</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1304708909400773</v>
+        <v>0.5769377685115685</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4319343185560828</v>
+        <v>1.880628096266738</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2200700264155634</v>
+        <v>0.5714595848314712</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006755108727525</v>
+        <v>0.7332113116482943</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2294388630478308</v>
+        <v>0.5957878024421672</v>
       </c>
       <c r="N4" t="n">
-        <v>136.0552379255526</v>
+        <v>36.2382460638124</v>
       </c>
       <c r="O4" t="n">
-        <v>215.2821665419856</v>
+        <v>56.95913508657181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_3</t>
+          <t>model_1_24_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9884775597783028</v>
+        <v>0.9221292973968184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7301962587008164</v>
+        <v>0.7263248234812958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7088333462884078</v>
+        <v>0.6131947608898252</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9803070520533604</v>
+        <v>0.9527847929271753</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04835721670084848</v>
+        <v>0.3268066805274948</v>
       </c>
       <c r="G5" t="n">
-        <v>1.804178860399636</v>
+        <v>1.830067165538891</v>
       </c>
       <c r="H5" t="n">
-        <v>1.041486237513757</v>
+        <v>1.383579912040684</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1323275459439794</v>
+        <v>0.5631027170376576</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4279361391050432</v>
+        <v>1.893220672780729</v>
       </c>
       <c r="K5" t="n">
-        <v>0.21990274373197</v>
+        <v>0.5716700801401932</v>
       </c>
       <c r="L5" t="n">
-        <v>1.006744843056603</v>
+        <v>0.7330147339319487</v>
       </c>
       <c r="M5" t="n">
-        <v>0.229264458794074</v>
+        <v>0.5960072589719667</v>
       </c>
       <c r="N5" t="n">
-        <v>136.0582796172754</v>
+        <v>36.23677294790927</v>
       </c>
       <c r="O5" t="n">
-        <v>215.2852082337085</v>
+        <v>56.95766197066867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_4</t>
+          <t>model_1_24_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9884920472999776</v>
+        <v>0.9220522232020536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7300899368981469</v>
+        <v>0.7261069885047101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7087944159636019</v>
+        <v>0.6133257907713338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9800278087088525</v>
+        <v>0.9539447489393422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04829641567158616</v>
+        <v>0.3271301444350156</v>
       </c>
       <c r="G6" t="n">
-        <v>1.804889834783654</v>
+        <v>1.831523829030357</v>
       </c>
       <c r="H6" t="n">
-        <v>1.041625489028278</v>
+        <v>1.383111225752077</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1342039326891256</v>
+        <v>0.5492687338235659</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4239720356482277</v>
+        <v>1.906019892197459</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2197644549775649</v>
+        <v>0.5719529215197835</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006736362556111</v>
+        <v>0.732750479549898</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2291202828010967</v>
+        <v>0.5963021414946486</v>
       </c>
       <c r="N6" t="n">
-        <v>136.0607958615506</v>
+        <v>36.23479438409971</v>
       </c>
       <c r="O6" t="n">
-        <v>215.2877244779836</v>
+        <v>56.95568340685912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_5</t>
+          <t>model_1_24_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9885036610468235</v>
+        <v>0.9219538012855579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7299850047722307</v>
+        <v>0.7258592034897483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7087546721237341</v>
+        <v>0.6134359846226021</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9797460127861827</v>
+        <v>0.9551025618964786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04824767526051614</v>
+        <v>0.327543200163882</v>
       </c>
       <c r="G7" t="n">
-        <v>1.805591516392824</v>
+        <v>1.833180768566352</v>
       </c>
       <c r="H7" t="n">
-        <v>1.041767650439005</v>
+        <v>1.382717068735497</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1360974715846204</v>
+        <v>0.5354603093263621</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4200502798841608</v>
+        <v>1.919029003169932</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2196535345959999</v>
+        <v>0.5723139000267965</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006729564265274</v>
+        <v>0.7324130329790557</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2290046403092516</v>
+        <v>0.5966784876040336</v>
       </c>
       <c r="N7" t="n">
-        <v>136.0628152669742</v>
+        <v>36.23227064741739</v>
       </c>
       <c r="O7" t="n">
-        <v>215.2897438834072</v>
+        <v>56.9531596701768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_6</t>
+          <t>model_1_24_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9885124149153041</v>
+        <v>0.9218322910987296</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7298813319525962</v>
+        <v>0.725579979064469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7087140276959103</v>
+        <v>0.613522961654891</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9794617743327682</v>
+        <v>0.9562570879691722</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0482109371471533</v>
+        <v>0.3280531524242336</v>
       </c>
       <c r="G8" t="n">
-        <v>1.806284777015089</v>
+        <v>1.835047943583904</v>
       </c>
       <c r="H8" t="n">
-        <v>1.041913033200632</v>
+        <v>1.382405956934218</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1380074231624732</v>
+        <v>0.5216910851985964</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4161689861257377</v>
+        <v>1.932260181616392</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2195698912582354</v>
+        <v>0.5727592447304832</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006724440049578</v>
+        <v>0.7319964266242156</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2289174361014328</v>
+        <v>0.5971427915537471</v>
       </c>
       <c r="N8" t="n">
-        <v>136.064338743799</v>
+        <v>36.22915926730561</v>
       </c>
       <c r="O8" t="n">
-        <v>215.291267360232</v>
+        <v>56.95004829006502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_7</t>
+          <t>model_1_24_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.988518471491857</v>
+        <v>0.9216860600146415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7297789873397194</v>
+        <v>0.7252690067693194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7086726702296224</v>
+        <v>0.6135855444344034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9791751579258854</v>
+        <v>0.957405589838223</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04818551899099852</v>
+        <v>0.328666853002027</v>
       </c>
       <c r="G9" t="n">
-        <v>1.806969155912651</v>
+        <v>1.837127416753466</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0420609664595</v>
+        <v>1.38218210196066</v>
       </c>
       <c r="I9" t="n">
-        <v>0.13993335349311</v>
+        <v>0.5079937075298334</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4123234981056333</v>
+        <v>1.945711038108242</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2195120019292761</v>
+        <v>0.5732947348458967</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006720894736474</v>
+        <v>0.7314950629073422</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2288570823038924</v>
+        <v>0.597701078591991</v>
       </c>
       <c r="N9" t="n">
-        <v>136.0653934778738</v>
+        <v>36.22542129220897</v>
       </c>
       <c r="O9" t="n">
-        <v>215.2923220943068</v>
+        <v>56.94631031496838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_8</t>
+          <t>model_1_24_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.988521884367174</v>
+        <v>0.9215132914904983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7296778783165497</v>
+        <v>0.7249243977011587</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7086300099475741</v>
+        <v>0.6136220837693304</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9788864780472458</v>
+        <v>0.9585470950317971</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04817119588338396</v>
+        <v>0.3293919255387753</v>
       </c>
       <c r="G10" t="n">
-        <v>1.80764527241615</v>
+        <v>1.839431819179036</v>
       </c>
       <c r="H10" t="n">
-        <v>1.042213559814801</v>
+        <v>1.382051402878299</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1418731494041785</v>
+        <v>0.4943797743107597</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4085207395805688</v>
+        <v>1.959395066359349</v>
       </c>
       <c r="K10" t="n">
-        <v>0.219479374619539</v>
+        <v>0.5739267597340059</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006718896955801</v>
+        <v>0.7309027136817086</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2288230659820319</v>
+        <v>0.5983600100880587</v>
       </c>
       <c r="N10" t="n">
-        <v>136.0659880646751</v>
+        <v>36.22101394834355</v>
       </c>
       <c r="O10" t="n">
-        <v>215.2929166811081</v>
+        <v>56.94190297110296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_9</t>
+          <t>model_1_24_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9885227469545783</v>
+        <v>0.9213121834022994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7295779687446424</v>
+        <v>0.724544912686792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7085866455024779</v>
+        <v>0.6136313485716891</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9785957467473591</v>
+        <v>0.9596793696430308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04816757578857486</v>
+        <v>0.3302359331633944</v>
       </c>
       <c r="G11" t="n">
-        <v>1.808313368183535</v>
+        <v>1.841969437217473</v>
       </c>
       <c r="H11" t="n">
-        <v>1.042368671920495</v>
+        <v>1.382018263217466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1438267299218013</v>
+        <v>0.4808759277844689</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4047536258629645</v>
+        <v>1.973316835365449</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2194711274600257</v>
+        <v>0.5746615814228357</v>
       </c>
       <c r="L11" t="n">
-        <v>1.006718392026588</v>
+        <v>0.730213200236455</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2288144677238642</v>
+        <v>0.5991261146574728</v>
       </c>
       <c r="N11" t="n">
-        <v>136.0661383715452</v>
+        <v>36.2158958619918</v>
       </c>
       <c r="O11" t="n">
-        <v>215.2930669879782</v>
+        <v>56.93678488475121</v>
       </c>
     </row>
   </sheetData>
